--- a/medicine/Enfance/Éric_Pessan/Éric_Pessan.xlsx
+++ b/medicine/Enfance/Éric_Pessan/Éric_Pessan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Pessan</t>
+          <t>Éric_Pessan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric Pessan, né le 3 janvier 1970 à Bordeaux, est un écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Pessan</t>
+          <t>Éric_Pessan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric Pessan est auteur de romans, de fictions radiophoniques, de textes de théâtre, ainsi que de textes en compagnie de plasticiens. Il anime également des rencontres littéraires et des débats, ainsi que des ateliers d’écriture[1]. Il collabore au site Remue.net.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Pessan est auteur de romans, de fictions radiophoniques, de textes de théâtre, ainsi que de textes en compagnie de plasticiens. Il anime également des rencontres littéraires et des débats, ainsi que des ateliers d’écriture. Il collabore au site Remue.net.
 Il a été rédacteur en chef de la revue d'art et littérature Éponyme, publiée par les éditions Joca Seria (quatre numéros parus).
 En compagnie de Nicole Caligaris, il a codirigé l'ouvrage collectif Il me sera difficile de venir te voir, correspondances littéraires sur les conséquences de la politique d'immigration française, publié en octobre 2008, aux éditions Vents d'ailleurs.
 Il a été rédacteur en chef invité du no 123 de la Revue 303, numéro consacré au travail des écrivains. Il est membre du comité de rédaction de la revue Espace(s) éditée par l'Observatoire de l'Espace (CNES).
-En 2015, il est lauréat du prix NRP de littérature jeunesse pour son roman jeunesse Aussi loin que possible[2], publié à L’École des loisirs.
-Il publie en 2017 , La nuit du second tour, un « roman de politique-fiction imminente (...) qui imagine la victoire de l'extrême droite[3]. »
-Il est marié, père de famille, et vit dans le département de la Loire-Atlantique[4].
+En 2015, il est lauréat du prix NRP de littérature jeunesse pour son roman jeunesse Aussi loin que possible, publié à L’École des loisirs.
+Il publie en 2017 , La nuit du second tour, un « roman de politique-fiction imminente (...) qui imagine la victoire de l'extrême droite. »
+Il est marié, père de famille, et vit dans le département de la Loire-Atlantique.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Pessan</t>
+          <t>Éric_Pessan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,16 +562,18 @@
           <t>Prix et sélections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix NRP de littérature jeunesse 2015 pour Aussi loin que possible[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix NRP de littérature jeunesse 2015 pour Aussi loin que possible
 Sélection Prix Fémina, 2013, pour Muette
-Finaliste du prix Marguerite-Audoux des collèges 2017[5] pour Aussi loin que possible
-Sélection prix Vendredi 2017[6] pour Dans la forêt de Hokkaido
-Grand prix de la Société des gens de lettres du roman Jeunesse 2018[7] pour Dans la forêt de Hokkaido
-Prix Sésame 2019[8] pour Dans la forêt de Hokkaido
-Mention spéciale prix Vendredi 2020[9] pour Tenir debout dans la nuit.
-Prix littéraire Paul Langevin du roman « ado » 2022 pour Tenir debout dans la nuit, 2020[10].</t>
+Finaliste du prix Marguerite-Audoux des collèges 2017 pour Aussi loin que possible
+Sélection prix Vendredi 2017 pour Dans la forêt de Hokkaido
+Grand prix de la Société des gens de lettres du roman Jeunesse 2018 pour Dans la forêt de Hokkaido
+Prix Sésame 2019 pour Dans la forêt de Hokkaido
+Mention spéciale prix Vendredi 2020 pour Tenir debout dans la nuit.
+Prix littéraire Paul Langevin du roman « ado » 2022 pour Tenir debout dans la nuit, 2020.</t>
         </is>
       </c>
     </row>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ric_Pessan</t>
+          <t>Éric_Pessan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,58 +603,240 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Essais, récits
-2012 : Ôter les masques (d'après Shining de Stephen King), éditions Cécile Defaut
+          <t>Essais, récits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2012 : Ôter les masques (d'après Shining de Stephen King), éditions Cécile Defaut
 2014 : Demande de remboursement des livres pour cause de non-conformité avec ce que l'on peut attendre de la littérature, éditions de l'Attente, hors commerce
 2015 : Le Monde et l'immonde, éditions du Château des Ducs de Bretagne, Nantes
 2019 : La Connaissance et l'Extase, éditions de l'Attente
-2020 : … ou bien, je me trompe ?, coll. « L'argent public, à quoi ça sert », N'a qu'1 Œil
-Romans
-2001 : L’Effacement du monde, La Différence
+2020 : … ou bien, je me trompe ?, coll. « L'argent public, à quoi ça sert », N'a qu'1 Œil</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2001 : L’Effacement du monde, La Différence
 2002 : Chambre avec gisant, La Différence
 2004 : Les Géocroiseurs, La Différence
 2006 : Une très très vilaine chose, Robert Laffont
 2007 : Cela n'arrivera jamais, Éditions du Seuil, Fiction et Cie
-2010 : Incident de personne[11], Albin Michel
+2010 : Incident de personne, Albin Michel
 2013 : Muette, Albin Michel
 2015 : Le démon avance toujours en ligne droite, Albin Michel
-2017 : La Nuit du second tour[3], Albin Michel
+2017 : La Nuit du second tour, Albin Michel
 2017 : Dans la forêt de Hokkaido, L'École des loisirs
 2018 : Quichotte, autoportrait chevaleresque, Fayard
 2020 :  Tenir debout dans la nuit, Médium +
 2022 : Qui verrait la Terre de loin, Fayard
-2023 : Ma tempête, Aux Forges de Vulcain
-Nouvelles
-2009 : La Nuit de la comète suivi de Ce matin, la lune, Éditions Cénomane
+2023 : Ma tempête, Aux Forges de Vulcain</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2009 : La Nuit de la comète suivi de Ce matin, la lune, Éditions Cénomane
 2011 : Sexie conférencière, Derrière la salle de bains
 2011 :  Croiser les méduses, Éditions de l'atelier In-8
 2012 :  Monde profond, Éditions de l'atelier In-8
 2016 : Lettre ouverte au banquier séquestré dans ma cave depuis plusieurs semaines, Éditions Le Réalgar
 2016 : Sang des glaciers, La Passe du vent
 2018 : La Connaissance et l'Extase, Édition de l'Attente
-2023 : Untoten, Éditions de l'Attente
-Théâtre
-Pièces publiées
-2010 : Tout doit disparaître, éditions Théâtre Ouvert, coll. « Tapuscrit »
+2023 : Untoten, Éditions de l'Attente</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pièces publiées</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2010 : Tout doit disparaître, éditions Théâtre Ouvert, coll. « Tapuscrit »
 2011 : La Grande Décharge, éditions de l'Amandier
 2011 : Les Inaboutis, éditions Théâtre Ouvert, coll. « Tapuscrit »
 2012 : Dépouilles, éditions de l'Attente
 2014 : Le Syndrome Shéhérazade, éditions de l'Attente
 2015 : Cache-cache, L'École des loisirs (théâtre jeunesse)
 2017 : Pebbleboy, L'École des loisirs (théâtre jeunesse)
-2018 : De si beaux uniformes[12], éd. Espace 34  (ISBN 9782847051599)
-2021 : Dino et la fin d'un monde, L’École des loisirs (théâtre jeunesse)
-Pièces jouées
-Dépouilles. Pièce pour 3 à X personnages (lecture et mise en espace en mars 2007 au Grand T (Nantes) par le Théâtre du Reflet
+2018 : De si beaux uniformes, éd. Espace 34  (ISBN 9782847051599)
+2021 : Dino et la fin d'un monde, L’École des loisirs (théâtre jeunesse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pièces jouées</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dépouilles. Pièce pour 3 à X personnages (lecture et mise en espace en mars 2007 au Grand T (Nantes) par le Théâtre du Reflet
 Chambre avec gisant, adaptation, création à la scène nationale de la Roche-sur-Yon en novembre 2006, festival off Avignon 2007, mise en scène de Nicole Turpin
 Inventaire des biens et des actes de Sauveur Marin, marchand français du Levant, création en mars 2009, au Théâtre national de Chypre, mise en scène de Charles Tordjman
 Tout doit disparaître, mise en voix par Jean-Christophe Saïs, février 2010, à Théâtre Ouvert
 La Grande Décharge, mise en voix par Charles Tordjman, février 2010, Théâtre du Rond-Point
 Tout doit disparaître, mise en espace par Frédéric Maragnani, juillet 2011, Chapelle des pénitents blancs, festival d'Avignon
 Alles muss raus (Tout doit disparaître, traduction Cordula Treml &amp; Franck Weigand), lecture au Berlin Theater, mise en voix par Leyla-Claire Rabih, Berlin, novembre 2011
-Nao ha de quedar res (Tout doit disparaître, traduction Joan Casas), mise en voix à la Sala Beckett par Thomas Sauerteig, Barcelone, décembre 2011
-Fictions radiophoniques
-Toutes les fictions ont été créées sur France Culture.
+Nao ha de quedar res (Tout doit disparaître, traduction Joan Casas), mise en voix à la Sala Beckett par Thomas Sauerteig, Barcelone, décembre 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fictions radiophoniques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Toutes les fictions ont été créées sur France Culture.
 2003 : La Signature
 2004 : Le Syndrome de Münchhausen
 2005 : Demain matin, la lune
@@ -646,52 +844,256 @@
 2006 : Dépouilles
 2008 : La Grande Enseigne
 2009 : La Plus Heureuse entre toutes les mères
-2011 : La Grande Décharge
-Poésie
-2010 : Moi, je suis quand même passé, éditions Cousu Main
+2011 : La Grande Décharge</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2010 : Moi, je suis quand même passé, éditions Cousu Main
 2011 : Interdiction absolue de toucher les filles même tombées à terre, avec Claude Favre, éditions Cousu Main
 2014 : Moonshiner, éditions Asphodèle
 2015 : En voix de disparition, Al Dante
 2019 : Ce qui sauterait aux trois yeux du Martien fraichement débarqué, éd. Lanskine
 2020 : Biji (livre aléatoire numérique), éditions La Marelle.
 2020 : Photos de famille, éd. L’Œil ébloui
-2022 : Rien dans mon enfance, éd. L’Œil ébloui
-Livres jeunesse
- 2012 : Quelque chose de merveilleux et d'effrayant, avec Quentin Bertoux, éditions Thierry Magnier
+2022 : Rien dans mon enfance, éd. L’Œil ébloui</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2012 : Quelque chose de merveilleux et d'effrayant, avec Quentin Bertoux, éditions Thierry Magnier
 2012 : Plus haut que les oiseaux, roman, L'École des loisirs
 2014 : Et les lumières dansaient dans le ciel, roman, L'École des loisirs
-2015 : Aussi loin que possible[13], roman, L'École des loisirs
-2016 : La Plus Grande Peur de ma vie[14], L'École des loisirs
-2017 : Dans la forêt de Hokkaïdo[15], L'École des loisirs
-2018 : Les Étrangers[16], avec Olivier de Solminihac, L'École des loisirs
+2015 : Aussi loin que possible, roman, L'École des loisirs
+2016 : La Plus Grande Peur de ma vie, L'École des loisirs
+2017 : Dans la forêt de Hokkaïdo, L'École des loisirs
+2018 : Les Étrangers, avec Olivier de Solminihac, L'École des loisirs
 2019 : L'homme qui voulait rentrer chez lui, L'École des loisirs
 2020 : Tenir debout dans la nuit, L'École des loisirs
 2021 : Teenage Riot, avec Olivier de Solminihac, L'École des loisirs
 2021 : La Gueule-du-Loup, L'École des loisirs
 2022 : Le Poème de Fernando, Éditions Thierry Magnier
-2023 : "Le soleil est nouveau chaque jour", roman, L'École des loisirs
-Livres illustrés en compagnie de plasticiens
-2006 : Sage comme une image, avec Françoise Pétrovitch, coéditions Pérégrines/Le Temps qu'il fait
+2023 : "Le soleil est nouveau chaque jour", roman, L'École des loisirs</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Livres illustrés en compagnie de plasticiens</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2006 : Sage comme une image, avec Françoise Pétrovitch, coéditions Pérégrines/Le Temps qu'il fait
 2008 : Ne bouge pas poupée, avec Françoise Pétrovitch et Hervé Plumet, CIAV éditions
-2008 : L'Écorce et la Chair, avec Patricia Cartereau[17], éditions du Chemin de fer
+2008 : L'Écorce et la Chair, avec Patricia Cartereau, éditions du Chemin de fer
 2009 : Le Livre parfait, avec Pierrick Naud, éditions Circa 1924
 2010 : Un matin de grand silence, avec Marc Desgrandchamps, éditions du Chemin de fer
 2010 : La Fête immobile, avec Hervé Plumet, éditions Presque Lune
 2012 : N, avec Mikaël Lafontan, éditions Les Inaperçus
 2014 : La Fille aux loups, avec Frédéric Khodja, éditions du Chemin de fer
-2015 : La Hante[18],[19],[20], avec Patricia Cartereau[17], éditions L'Atelier contemporain
-2017 : Un chagrin d'amour avec le monde entier, avec Sylvie Sauvageon[21], éditions du Chemin de fer
-2023 : Le Long des fissures, avec Patricia Cartereau, éditions de L'atelier contemporain[22]
-Livres d'artistes
-2004 : Doudous, avec Patricia Cartereau[17], éditions Joca Seria
+2015 : La Hante avec Patricia Cartereau, éditions L'Atelier contemporain
+2017 : Un chagrin d'amour avec le monde entier, avec Sylvie Sauvageon, éditions du Chemin de fer
+2023 : Le Long des fissures, avec Patricia Cartereau, éditions de L'atelier contemporain</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Livres d'artistes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2004 : Doudous, avec Patricia Cartereau, éditions Joca Seria
 2005 : Peau d'oignon, livre lithographié, éditions Le Petit Jaunais
 2011 : Je suis mon monde, avec André Jolivet, éditions Voltije
-2016 : L'imbécile a dit, avec Anya Belyat-Giunta, Luc Detot, Sarah Jérôme, Abel Pradalié, Jérome Progin et Peggy Viallat, A-Over éditions
-Dessin &amp; romans graphiques
-2015 : Parfois, je dessine dans mon carnet, éditions de l'Attente
-2022 : Samedi, roman graphique dessiné par Christian Robert de Massy, éditions Patayo[23]
-Articles et livres collectifs
-2004 : « La Retraite à Miami », in Tout sera comme avant dirigé par Dominique A, éditions Verticales
+2016 : L'imbécile a dit, avec Anya Belyat-Giunta, Luc Detot, Sarah Jérôme, Abel Pradalié, Jérome Progin et Peggy Viallat, A-Over éditions</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dessin &amp; romans graphiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2015 : Parfois, je dessine dans mon carnet, éditions de l'Attente
+2022 : Samedi, roman graphique dessiné par Christian Robert de Massy, éditions Patayo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Éric_Pessan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Pessan</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Articles et livres collectifs</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2004 : « La Retraite à Miami », in Tout sera comme avant dirigé par Dominique A, éditions Verticales
 2004 : « On s'expose », in La lithographie volante, catalogue d'exposition des éditions du Petit Jaunais à Prague. Éditions de l'Institut Français de Prague
 2005 : « Je suis ce corps », in Revue Courbe(s)
 2005 : « C'est un jardin fermé », in Écrivains au jardin, éditions Joca Seria
@@ -731,7 +1133,7 @@
 2014 : « Tu n'as rien anticipé », in Revue Hippocampe no 11
 2014 : « Sur toutes les pages blanches », in NRF no 610
 2015 : « Sans sapin », in Lendemains de fête, Publie.net
-2015 : « Le jeu de la vérité » in Revue secousse[24] no 16
+2015 : « Le jeu de la vérité » in Revue secousse no 16
 2015 : « La chose d'une autre planète » in Cabaret du Futur, 21 auteurs de théâtre sur la planète SF, Color Gang
 2015 : « Dans la gueule du clown » sur Ça de Stephen King, in Le Magazine littéraire no 555
 2015 : « Ainsi de suite » et « Programme Général Instin » in Anthologie Général Instin, Le Nouvel Attila
